--- a/final/encoding.xlsx
+++ b/final/encoding.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abpwrs/projects/embedded/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2DB91-E6D1-E342-88C0-69EB400B21F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD9470-A2DD-5143-A705-50D6812A67C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1D429516-32DC-F842-A944-DD6AF1FD3DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>A</t>
   </si>
@@ -255,7 +255,10 @@
     <t>Our Code ('.'=1, '-'=0)</t>
   </si>
   <si>
-    <t>length (2)</t>
+    <t>Our Code hex</t>
+  </si>
+  <si>
+    <t>length (hex)</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0487569F-0653-A74F-8E35-46028443236C}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,12 +624,13 @@
     <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -657,8 +661,14 @@
       <c r="J1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -682,23 +692,31 @@
         <v>0-</v>
       </c>
       <c r="G2" t="str">
-        <f>SUBSTITUTE(F2,"-","1")</f>
+        <f t="shared" ref="G2:G40" si="0">SUBSTITUTE(F2,"-","1")</f>
         <v>01</v>
       </c>
       <c r="H2" t="str">
-        <f>DEC2BIN(LEN(G2)+0)</f>
-        <v>10</v>
+        <f>BIN2HEX(G2)</f>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
-        <f>SUBSTITUTE(B2,".","1")</f>
+        <f t="shared" ref="I2:I40" si="1">SUBSTITUTE(B2,".","1")</f>
         <v>1-</v>
       </c>
       <c r="J2" t="str">
         <f>SUBSTITUTE(I2,"-","0")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="str">
+        <f>BIN2HEX(J2)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" t="str">
+        <f>DEC2HEX(LEN(G2)+0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -706,7 +724,7 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C40" si="0">CODE(A3)</f>
+        <f t="shared" ref="C3:C40" si="2">CODE(A3)</f>
         <v>66</v>
       </c>
       <c r="D3" t="str">
@@ -718,27 +736,35 @@
         <v>42</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F40" si="1">SUBSTITUTE(B3,".","0")</f>
+        <f t="shared" ref="F3:F40" si="3">SUBSTITUTE(B3,".","0")</f>
         <v>-000</v>
       </c>
       <c r="G3" t="str">
-        <f>SUBSTITUTE(F3,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H40" si="2">DEC2BIN(LEN(G3)+0)</f>
-        <v>100</v>
+        <f>BIN2HEX(G3)</f>
+        <v>8</v>
       </c>
       <c r="I3" t="str">
-        <f>SUBSTITUTE(B3,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-111</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J40" si="3">SUBSTITUTE(I3,"-","0")</f>
+        <f t="shared" ref="J3:J40" si="4">SUBSTITUTE(I3,"-","0")</f>
         <v>0111</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K40" si="5">BIN2HEX(J3)</f>
+        <v>7</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L21" si="6">DEC2HEX(LEN(G3)+0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -746,39 +772,47 @@
         <v>37</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D40" si="4">TEXT(DEC2BIN(C4), "00000000")</f>
+        <f t="shared" ref="D4:D40" si="7">TEXT(DEC2BIN(C4), "00000000")</f>
         <v>01000011</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E40" si="5">DEC2HEX(C4)</f>
+        <f t="shared" ref="E4:E40" si="8">DEC2HEX(C4)</f>
         <v>43</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0-0</v>
       </c>
       <c r="G4" t="str">
-        <f>SUBSTITUTE(F4,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>1010</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" ref="H4:H43" si="9">BIN2HEX(G4)</f>
+        <v>A</v>
       </c>
       <c r="I4" t="str">
-        <f>SUBSTITUTE(B4,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-1-1</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0101</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -786,39 +820,47 @@
         <v>38</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01000100</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-00</v>
       </c>
       <c r="G5" t="str">
-        <f>SUBSTITUTE(F5,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="I5" t="str">
-        <f>SUBSTITUTE(B5,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>011</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -826,39 +868,47 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01000101</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <f>SUBSTITUTE(F6,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I6" t="str">
-        <f>SUBSTITUTE(B6,".","1")</f>
+      <c r="J6" t="str">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" si="3"/>
+      <c r="K6" t="str">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -866,39 +916,47 @@
         <v>39</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01000110</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00-0</v>
       </c>
       <c r="G7" t="str">
-        <f>SUBSTITUTE(F7,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>0010</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="I7" t="str">
-        <f>SUBSTITUTE(B7,".","1")</f>
+        <f t="shared" si="1"/>
         <v>11-1</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1101</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -906,39 +964,47 @@
         <v>40</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01000111</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>--0</v>
       </c>
       <c r="G8" t="str">
-        <f>SUBSTITUTE(F8,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="I8" t="str">
-        <f>SUBSTITUTE(B8,".","1")</f>
+        <f t="shared" si="1"/>
         <v>--1</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>001</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -946,39 +1012,47 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01001000</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" t="str">
-        <f>SUBSTITUTE(F9,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" t="str">
-        <f>SUBSTITUTE(B9,".","1")</f>
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -986,39 +1060,47 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01001001</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
       <c r="G10" t="str">
-        <f>SUBSTITUTE(F10,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="I10" t="str">
-        <f>SUBSTITUTE(B10,".","1")</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1026,39 +1108,47 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01001010</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4A</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0---</v>
       </c>
       <c r="G11" t="str">
-        <f>SUBSTITUTE(F11,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>0111</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="I11" t="str">
-        <f>SUBSTITUTE(B11,".","1")</f>
+        <f t="shared" si="1"/>
         <v>1---</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1066,39 +1156,47 @@
         <v>43</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01001011</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4B</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0-</v>
       </c>
       <c r="G12" t="str">
-        <f>SUBSTITUTE(F12,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="I12" t="str">
-        <f>SUBSTITUTE(B12,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-1-</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>010</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1106,39 +1204,47 @@
         <v>44</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01001100</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4C</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0-00</v>
       </c>
       <c r="G13" t="str">
-        <f>SUBSTITUTE(F13,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>0100</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="I13" t="str">
-        <f>SUBSTITUTE(B13,".","1")</f>
+        <f t="shared" si="1"/>
         <v>1-11</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1011</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1146,39 +1252,47 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01001101</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4D</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="G14" t="str">
-        <f>SUBSTITUTE(F14,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="I14" t="str">
-        <f>SUBSTITUTE(B14,".","1")</f>
+        <f t="shared" si="1"/>
         <v>--</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1186,39 +1300,47 @@
         <v>46</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01001110</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4E</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0</v>
       </c>
       <c r="G15" t="str">
-        <f>SUBSTITUTE(F15,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="I15" t="str">
-        <f>SUBSTITUTE(B15,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1226,39 +1348,47 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01001111</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4F</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>---</v>
       </c>
       <c r="G16" t="str">
-        <f>SUBSTITUTE(F16,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="I16" t="str">
-        <f>SUBSTITUTE(B16,".","1")</f>
+        <f t="shared" si="1"/>
         <v>---</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>000</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1266,39 +1396,47 @@
         <v>48</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01010000</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0--0</v>
       </c>
       <c r="G17" t="str">
-        <f>SUBSTITUTE(F17,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>0110</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="I17" t="str">
-        <f>SUBSTITUTE(B17,".","1")</f>
+        <f t="shared" si="1"/>
         <v>1--1</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1306,39 +1444,47 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01010001</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>--0-</v>
       </c>
       <c r="G18" t="str">
-        <f>SUBSTITUTE(F18,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>1101</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>D</v>
       </c>
       <c r="I18" t="str">
-        <f>SUBSTITUTE(B18,".","1")</f>
+        <f t="shared" si="1"/>
         <v>--1-</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0010</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1346,39 +1492,47 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01010010</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0-0</v>
       </c>
       <c r="G19" t="str">
-        <f>SUBSTITUTE(F19,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>010</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="I19" t="str">
-        <f>SUBSTITUTE(B19,".","1")</f>
+        <f t="shared" si="1"/>
         <v>1-1</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1386,39 +1540,47 @@
         <v>66</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01010011</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>000</v>
       </c>
       <c r="G20" t="str">
-        <f>SUBSTITUTE(F20,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="I20" t="str">
-        <f>SUBSTITUTE(B20,".","1")</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1426,39 +1588,47 @@
         <v>51</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01010100</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="G21" t="str">
-        <f>SUBSTITUTE(F21,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I21" t="str">
-        <f>SUBSTITUTE(B21,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1466,39 +1636,47 @@
         <v>52</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01010101</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00-</v>
       </c>
       <c r="G22" t="str">
-        <f>SUBSTITUTE(F22,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>001</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="I22" t="str">
-        <f>SUBSTITUTE(B22,".","1")</f>
+        <f t="shared" si="1"/>
         <v>11-</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L22" t="str">
+        <f>DEC2HEX(LEN(G22)+0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1506,39 +1684,47 @@
         <v>67</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01010110</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>000-</v>
       </c>
       <c r="G23" t="str">
-        <f>SUBSTITUTE(F23,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>0001</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="I23" t="str">
-        <f>SUBSTITUTE(B23,".","1")</f>
+        <f t="shared" si="1"/>
         <v>111-</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1110</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="L23" t="str">
+        <f>DEC2HEX(LEN(G23)+0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1546,39 +1732,47 @@
         <v>53</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01010111</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0--</v>
       </c>
       <c r="G24" t="str">
-        <f>SUBSTITUTE(F24,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>011</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="I24" t="str">
-        <f>SUBSTITUTE(B24,".","1")</f>
+        <f t="shared" si="1"/>
         <v>1--</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="str">
+        <f>BIN2HEX(J24)</f>
+        <v>4</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" ref="L24:L40" si="10">DEC2HEX(LEN(G24)+0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1586,39 +1780,47 @@
         <v>54</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01011000</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-00-</v>
       </c>
       <c r="G25" t="str">
-        <f>SUBSTITUTE(F25,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>1001</v>
       </c>
       <c r="H25" t="str">
-        <f>DEC2BIN(LEN(G25)+0)</f>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="I25" t="str">
-        <f>SUBSTITUTE(B25,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-11-</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0110</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1626,39 +1828,47 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01011001</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0--</v>
       </c>
       <c r="G26" t="str">
-        <f>SUBSTITUTE(F26,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>1011</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>BIN2HEX(G26)</f>
+        <v>B</v>
       </c>
       <c r="I26" t="str">
-        <f>SUBSTITUTE(B26,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-1--</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0100</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1666,39 +1876,47 @@
         <v>56</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01011010</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5A</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>--00</v>
       </c>
       <c r="G27" t="str">
-        <f>SUBSTITUTE(F27,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>C</v>
       </c>
       <c r="I27" t="str">
-        <f>SUBSTITUTE(B27,".","1")</f>
+        <f t="shared" si="1"/>
         <v>--11</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0011</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1706,39 +1924,47 @@
         <v>57</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00110000</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-----</v>
       </c>
       <c r="G28" t="str">
-        <f>SUBSTITUTE(F28,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>11111</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>1F</v>
       </c>
       <c r="I28" t="str">
-        <f>SUBSTITUTE(B28,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-----</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1746,39 +1972,47 @@
         <v>58</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00110001</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0----</v>
       </c>
       <c r="G29" t="str">
-        <f>SUBSTITUTE(F29,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>01111</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>F</v>
       </c>
       <c r="I29" t="str">
-        <f>SUBSTITUTE(B29,".","1")</f>
+        <f t="shared" si="1"/>
         <v>1----</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1786,7 +2020,7 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D30" t="str">
@@ -1794,7 +2028,7 @@
         <v>00110010</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="F30" t="str">
@@ -1802,23 +2036,31 @@
         <v>00---</v>
       </c>
       <c r="G30" t="str">
-        <f>SUBSTITUTE(F30,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>00111</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="I30" t="str">
-        <f>SUBSTITUTE(B30,".","1")</f>
+        <f t="shared" si="1"/>
         <v>11---</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11000</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="str">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1826,39 +2068,47 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00110011</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>000--</v>
       </c>
       <c r="G31" t="str">
-        <f>SUBSTITUTE(F31,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>00011</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="I31" t="str">
-        <f>SUBSTITUTE(B31,".","1")</f>
+        <f t="shared" si="1"/>
         <v>111--</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11100</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="str">
+        <f t="shared" si="5"/>
+        <v>1C</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1870,35 +2120,43 @@
         <v>52</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00110100</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0000-</v>
       </c>
       <c r="G32" t="str">
-        <f>SUBSTITUTE(F32,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>00001</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="I32" t="str">
-        <f>SUBSTITUTE(B32,".","1")</f>
+        <f t="shared" si="1"/>
         <v>1111-</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11110</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="str">
+        <f t="shared" si="5"/>
+        <v>1E</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1906,39 +2164,47 @@
         <v>70</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00110101</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000</v>
       </c>
       <c r="G33" t="str">
-        <f>SUBSTITUTE(F33,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>00000</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="I33" t="str">
-        <f>SUBSTITUTE(B33,".","1")</f>
+        <f t="shared" si="1"/>
         <v>11111</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11111</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="str">
+        <f t="shared" si="5"/>
+        <v>1F</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1946,39 +2212,47 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00110110</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0000</v>
       </c>
       <c r="G34" t="str">
-        <f>SUBSTITUTE(F34,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="I34" t="str">
-        <f>SUBSTITUTE(B34,".","1")</f>
+        <f t="shared" si="1"/>
         <v>-1111</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01111</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1986,11 +2260,11 @@
         <v>72</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00110111</v>
       </c>
       <c r="E35" s="1" t="str">
@@ -1998,27 +2272,35 @@
         <v>37</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>--000</v>
       </c>
       <c r="G35" t="str">
-        <f>SUBSTITUTE(F35,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>18</v>
       </c>
       <c r="I35" t="str">
-        <f>SUBSTITUTE(B35,".","1")</f>
+        <f t="shared" si="1"/>
         <v>--111</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00111</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" t="str">
+        <f>BIN2HEX(J35)</f>
+        <v>7</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -2026,39 +2308,47 @@
         <v>60</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00111000</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>---00</v>
       </c>
       <c r="G36" t="str">
-        <f>SUBSTITUTE(F36,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>11100</v>
       </c>
       <c r="H36" t="str">
-        <f>DEC2BIN(LEN(G36)+0)</f>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>1C</v>
       </c>
       <c r="I36" t="str">
-        <f>SUBSTITUTE(B36,".","1")</f>
+        <f t="shared" si="1"/>
         <v>---11</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00011</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -2066,39 +2356,47 @@
         <v>61</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00111001</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>----0</v>
       </c>
       <c r="G37" t="str">
-        <f>SUBSTITUTE(F37,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>11110</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>1E</v>
       </c>
       <c r="I37" t="str">
-        <f>SUBSTITUTE(B37,".","1")</f>
+        <f t="shared" si="1"/>
         <v>----1</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00001</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -2106,39 +2404,47 @@
         <v>62</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00101110</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2E</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0-0-0-</v>
       </c>
       <c r="G38" t="str">
-        <f>SUBSTITUTE(F38,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>010101</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="I38" t="str">
-        <f>SUBSTITUTE(B38,".","1")</f>
+        <f t="shared" si="1"/>
         <v>1-1-1-</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101010</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" t="str">
+        <f t="shared" si="5"/>
+        <v>2A</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2146,39 +2452,47 @@
         <v>63</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00101100</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2C</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>--00--</v>
       </c>
       <c r="G39" t="str">
-        <f>SUBSTITUTE(F39,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>110011</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="I39" t="str">
-        <f>SUBSTITUTE(B39,".","1")</f>
+        <f t="shared" si="1"/>
         <v>--11--</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>001100</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -2186,36 +2500,44 @@
         <v>64</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>00111111</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3F</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00--00</v>
       </c>
       <c r="G40" t="str">
-        <f>SUBSTITUTE(F40,"-","1")</f>
+        <f t="shared" si="0"/>
         <v>001100</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>C</v>
       </c>
       <c r="I40" t="str">
-        <f>SUBSTITUTE(B40,".","1")</f>
+        <f t="shared" si="1"/>
         <v>11--11</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110011</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/final/encoding.xlsx
+++ b/final/encoding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abpwrs/projects/embedded/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\embedded\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD9470-A2DD-5143-A705-50D6812A67C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE694CD2-55E0-40CD-ADB3-06C5A5498916}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1D429516-32DC-F842-A944-DD6AF1FD3DC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1D429516-32DC-F842-A944-DD6AF1FD3DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,23 +614,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0487569F-0653-A74F-8E35-46028443236C}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2"/>
+    <col min="5" max="5" width="10.875" style="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -668,7 +668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -764,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -792,7 +792,7 @@
         <v>1010</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H43" si="9">BIN2HEX(G4)</f>
+        <f t="shared" ref="H4:H40" si="9">BIN2HEX(G4)</f>
         <v>A</v>
       </c>
       <c r="I4" t="str">
@@ -812,7 +812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -956,7 +956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
